--- a/mysite1/项目文档/数据库.xlsx
+++ b/mysite1/项目文档/数据库.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="186">
   <si>
     <t>数据表：</t>
   </si>
@@ -130,7 +130,7 @@
     <t>产品ID</t>
   </si>
   <si>
-    <t>create_user</t>
+    <t>search_user</t>
   </si>
   <si>
     <t>INT</t>
@@ -157,7 +157,7 @@
     <t>评论内容</t>
   </si>
   <si>
-    <t>create_date</t>
+    <t>search_date</t>
   </si>
   <si>
     <t>DATETIME</t>
@@ -288,7 +288,7 @@
     <t xml:space="preserve"> 状态(0,激活，1，未激活，2注销)</t>
   </si>
   <si>
-    <t>buynumber</t>
+    <t>purchase_quantity</t>
   </si>
   <si>
     <t>购买数量</t>
@@ -309,7 +309,7 @@
     <t>收货地址1</t>
   </si>
   <si>
-    <t>create_user_id</t>
+    <t>purchaser_id</t>
   </si>
   <si>
     <t>创建者ID</t>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>邮箱</t>
+  </si>
+  <si>
+    <t>create_date</t>
   </si>
   <si>
     <t>datetime</t>
@@ -437,6 +440,9 @@
     <t>图片链接</t>
   </si>
   <si>
+    <t>modify_date</t>
+  </si>
+  <si>
     <t>修改日期</t>
   </si>
   <si>
@@ -455,6 +461,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>modify_user</t>
+  </si>
+  <si>
     <t>CONSUME</t>
   </si>
   <si>
@@ -470,7 +479,10 @@
     <t xml:space="preserve">ID </t>
   </si>
   <si>
-    <t>Class_IDs varchar(30)</t>
+    <t xml:space="preserve">Class_IDs </t>
+  </si>
+  <si>
+    <t>INT,varchar(30)</t>
   </si>
   <si>
     <t>类别ID</t>
@@ -504,6 +516,9 @@
   </si>
   <si>
     <t>商品描述</t>
+  </si>
+  <si>
+    <t>create_user_id</t>
   </si>
   <si>
     <t>订单创建人</t>
@@ -613,6 +628,9 @@
     </r>
   </si>
   <si>
+    <t>PRODUCT_ATTENTION商品关注表</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORDER_ID </t>
   </si>
   <si>
@@ -620,6 +638,9 @@
   </si>
   <si>
     <t>订单明细ID</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT_ID </t>
@@ -642,10 +663,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -684,39 +705,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -729,7 +720,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,9 +747,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,21 +786,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -787,15 +794,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,21 +805,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,9 +819,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -872,6 +893,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -884,7 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +929,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,37 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,67 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,37 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,22 +1119,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,7 +1139,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,15 +1155,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,149 +1191,162 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,6 +1441,288 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{712edbe7-77f0-1482-762d-bf5f1380fa25}" diskRevisions="1" revisionId="15" version="4">
+  <header guid="{f81cc59f-1335-07fd-d418-bf5f091f3b58}" dateTime="2020-11-26T10:54:13" maxSheetId="2" userName="tarena" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{88d354f9-28fa-4e51-d518-bf5f44d0a03f}" dateTime="2020-11-26T12:03:28" maxSheetId="2" userName="tarena" r:id="rId2" minRId="1" maxRId="7">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5859f184-0a14-576b-a02a-bf5fa304d315}" dateTime="2020-11-26T12:10:23" maxSheetId="2" userName="tarena" r:id="rId3" minRId="8" maxRId="13">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{712edbe7-77f0-1482-762d-bf5f1380fa25}" dateTime="2020-11-26T12:22:49" maxSheetId="2" userName="tarena" r:id="rId4" minRId="14" maxRId="15">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="G5" t="inlineStr">
+      <is>
+        <t>create_user</t>
+      </is>
+    </oc>
+    <nc r="G5" t="inlineStr">
+      <is>
+        <t>search_user</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <oc r="G6" t="inlineStr">
+      <is>
+        <t>create_date</t>
+      </is>
+    </oc>
+    <nc r="G6" t="inlineStr">
+      <is>
+        <t>search_date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <oc r="D14" t="inlineStr">
+      <is>
+        <t>buynumber</t>
+      </is>
+    </oc>
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>purchase_quantity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <oc r="D15" t="inlineStr">
+      <is>
+        <t>create_user_id</t>
+      </is>
+    </oc>
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>purchaser_id</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <oc r="G26" t="inlineStr">
+      <is>
+        <t>create_date</t>
+      </is>
+    </oc>
+    <nc r="G26" t="inlineStr">
+      <is>
+        <t>modify_date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <oc r="A32" t="inlineStr">
+      <is>
+        <t>Class_IDs varchar(30)</t>
+      </is>
+    </oc>
+    <nc r="A32" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Class_IDs </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="1">
+    <oc r="B32" t="inlineStr">
+      <is>
+        <t>INT</t>
+      </is>
+    </oc>
+    <nc r="B32" t="inlineStr">
+      <is>
+        <t>INT,varchar(30)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="8" sId="1" odxf="1" dxf="1">
+    <nc r="D42" t="inlineStr">
+      <is>
+        <t>PRODUCT_ATTENTION商品关注表</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="Noto Sans CJK SC"/>
+        <color auto="1"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <nc r="D43" t="inlineStr">
+      <is>
+        <t>字段</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="1" odxf="1" dxf="1">
+    <nc r="E43" t="inlineStr">
+      <is>
+        <t>类型</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <nc r="F43" t="inlineStr">
+      <is>
+        <t>说明</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="1">
+    <nc r="D44" t="inlineStr">
+      <is>
+        <t>product_id</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="1">
+    <nc r="D45" t="inlineStr">
+      <is>
+        <t>user_id</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="G27" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment textRotation="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="14" sId="1">
+    <nc r="G27" t="inlineStr">
+      <is>
+        <t>modify_user</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="H27" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="15" sId="1">
+    <nc r="H27" t="inlineStr">
+      <is>
+        <t>INT</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+  <userInfo guid="{88d354f9-28fa-4e51-d518-bf5f44d0a03f}" name="tarena" id="-958689172" dateTime="2020-11-26T12:06:36"/>
+  <userInfo guid="{712edbe7-77f0-1482-762d-bf5f1380fa25}" name="tarena" id="-958711444" dateTime="2020-11-26T12:22:14"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1682,8 +1985,8 @@
   <sheetPr/>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2353,13 +2656,13 @@
         <v>90</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -2384,13 +2687,13 @@
     </row>
     <row r="18" customHeight="1" spans="1:26">
       <c r="A18" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="7"/>
@@ -2418,7 +2721,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:26">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>40</v>
@@ -2450,14 +2753,14 @@
     </row>
     <row r="20" customHeight="1" spans="1:26">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -2487,13 +2790,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
@@ -2533,7 +2836,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>13</v>
@@ -2542,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>
@@ -2573,22 +2876,22 @@
     </row>
     <row r="24" customHeight="1" spans="1:26">
       <c r="A24" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>67</v>
@@ -2619,31 +2922,31 @@
     </row>
     <row r="25" customHeight="1" spans="1:26">
       <c r="A25" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -2665,31 +2968,31 @@
     </row>
     <row r="26" customHeight="1" spans="1:26">
       <c r="A26" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -2711,25 +3014,29 @@
     </row>
     <row r="27" customHeight="1" spans="1:26">
       <c r="A27" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -2751,13 +3058,13 @@
     </row>
     <row r="28" customHeight="1" spans="1:26">
       <c r="A28" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2788,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
@@ -2837,7 +3144,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>8</v>
@@ -2866,22 +3173,22 @@
     </row>
     <row r="32" customHeight="1" spans="1:26">
       <c r="A32" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -2906,162 +3213,162 @@
     </row>
     <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3072,27 +3379,30 @@
         <v>72</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -3102,10 +3412,19 @@
       <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>28</v>
@@ -3113,21 +3432,27 @@
       <c r="C44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -3138,24 +3463,24 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/mysite1/项目文档/数据库.xlsx
+++ b/mysite1/项目文档/数据库.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="190">
   <si>
     <t>数据表：</t>
   </si>
@@ -199,6 +199,15 @@
     <t>评论图片</t>
   </si>
   <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>xingji</t>
+  </si>
+  <si>
     <t>PROVINCE</t>
   </si>
   <si>
@@ -206,6 +215,12 @@
   </si>
   <si>
     <t>省份</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>(0,haoping,1,chapin,2,zhongping)</t>
   </si>
   <si>
     <t>CITY</t>
@@ -277,9 +292,6 @@
   </si>
   <si>
     <t>分类名</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve"> TINYINT enum(0,1,2)</t>
@@ -1444,7 +1456,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{712edbe7-77f0-1482-762d-bf5f1380fa25}" diskRevisions="1" revisionId="15" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" diskRevisions="1" revisionId="25" version="9">
   <header guid="{f81cc59f-1335-07fd-d418-bf5f091f3b58}" dateTime="2020-11-26T10:54:13" maxSheetId="2" userName="tarena" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1461,6 +1473,31 @@
     </sheetIdMap>
   </header>
   <header guid="{712edbe7-77f0-1482-762d-bf5f1380fa25}" dateTime="2020-11-26T12:22:49" maxSheetId="2" userName="tarena" r:id="rId4" minRId="14" maxRId="15">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3601e670-5e72-be47-992d-bf5f36db1bf1}" dateTime="2020-11-30T17:27:09" maxSheetId="2" userName="tarena" r:id="rId5" minRId="16" maxRId="18">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0f3e4f3a-1058-6eda-edba-c45f756b5129}" dateTime="2020-11-30T17:27:19" maxSheetId="2" userName="tarena" r:id="rId6" minRId="19">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{78ddca6c-c7a4-ff37-f7ba-c45ff0ec42e9}" dateTime="2020-11-30T17:31:27" maxSheetId="2" userName="tarena" r:id="rId7" minRId="20">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{74283d6f-4a1a-03be-efbb-c45fc65d1a14}" dateTime="2020-11-30T17:32:17" maxSheetId="2" userName="tarena" r:id="rId8" minRId="21" maxRId="22">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" dateTime="2020-11-30T17:32:27" maxSheetId="2" userName="tarena" r:id="rId9" minRId="23" maxRId="25">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -1718,10 +1755,114 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="16" sId="1">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>status</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="1">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>int</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="1">
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>()</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="19" sId="1">
+    <oc r="F9" t="inlineStr">
+      <is>
+        <t>()</t>
+      </is>
+    </oc>
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>(0,)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="20" sId="1">
+    <oc r="F9" t="inlineStr">
+      <is>
+        <t>(0,)</t>
+      </is>
+    </oc>
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>(0,haoping,1,chapin,2,zhongping)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="21" sId="1" ref="A9:XFD9" action="insertRow"/>
+  <rcc rId="22" sId="1">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>x</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="23" sId="1">
+    <oc r="D9" t="inlineStr">
+      <is>
+        <t>x</t>
+      </is>
+    </oc>
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>stat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="1">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>int</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="1">
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>xingji</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{88d354f9-28fa-4e51-d518-bf5f44d0a03f}" name="tarena" id="-958689172" dateTime="2020-11-26T12:06:36"/>
-  <userInfo guid="{712edbe7-77f0-1482-762d-bf5f1380fa25}" name="tarena" id="-958711444" dateTime="2020-11-26T12:22:14"/>
+  <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958711444" dateTime="2020-11-26T12:22:14"/>
 </users>
 </file>
 
@@ -1983,10 +2124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1994,7 +2135,7 @@
     <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="39.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="35.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="28.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="43.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="20.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="31.8571428571429" customWidth="1"/>
@@ -2310,18 +2451,18 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="E9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="F9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -2348,21 +2489,23 @@
         <v>53</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="F10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -2383,32 +2526,24 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -2429,31 +2564,31 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -2473,120 +2608,126 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:26">
+    <row r="13" spans="1:26">
       <c r="A13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:26">
-      <c r="A14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
+        <v>75</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" customHeight="1" spans="1:26">
       <c r="A15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
@@ -2607,26 +2748,26 @@
     </row>
     <row r="16" customHeight="1" spans="1:26">
       <c r="A16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
@@ -2647,22 +2788,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:26">
       <c r="A17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -2687,17 +2828,23 @@
     </row>
     <row r="18" customHeight="1" spans="1:26">
       <c r="A18" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="17"/>
@@ -2720,16 +2867,18 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" customHeight="1" spans="1:26">
-      <c r="A19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="17"/>
@@ -2752,16 +2901,14 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" customHeight="1" spans="1:26">
-      <c r="A20" t="s">
-        <v>97</v>
+      <c r="A20" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="19"/>
@@ -2785,122 +2932,110 @@
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A21" s="3" t="s">
+    <row r="21" customHeight="1" spans="1:26">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:26">
-      <c r="A23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
     </row>
     <row r="24" customHeight="1" spans="1:26">
       <c r="A24" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>67</v>
+      <c r="G24" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -2925,28 +3060,28 @@
         <v>108</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G25" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>109</v>
+        <v>72</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -2968,31 +3103,31 @@
     </row>
     <row r="26" customHeight="1" spans="1:26">
       <c r="A26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -3014,30 +3149,32 @@
     </row>
     <row r="27" customHeight="1" spans="1:26">
       <c r="A27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="G27" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="H27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
@@ -3058,19 +3195,29 @@
     </row>
     <row r="28" customHeight="1" spans="1:26">
       <c r="A28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="F28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -3090,106 +3237,100 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A29" s="3" t="s">
+    <row r="29" customHeight="1" spans="1:26">
+      <c r="A29" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:26">
-      <c r="A31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
     </row>
     <row r="32" customHeight="1" spans="1:26">
       <c r="A32" s="9" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="17"/>
@@ -3211,41 +3352,61 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" customHeight="1" spans="1:26">
       <c r="A33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="D33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="9" t="s">
+      <c r="C34" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>146</v>
@@ -3256,7 +3417,7 @@
         <v>147</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>148</v>
@@ -3265,27 +3426,27 @@
         <v>149</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>155</v>
@@ -3296,7 +3457,7 @@
         <v>156</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>157</v>
@@ -3316,7 +3477,7 @@
         <v>160</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>161</v>
@@ -3336,7 +3497,7 @@
         <v>164</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>165</v>
@@ -3344,8 +3505,8 @@
       <c r="D39" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>141</v>
+      <c r="E39" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>167</v>
@@ -3365,7 +3526,7 @@
         <v>170</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>171</v>
@@ -3373,114 +3534,134 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>72</v>
+        <v>172</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A42" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>109</v>
+        <v>186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/mysite1/项目文档/数据库.xlsx
+++ b/mysite1/项目文档/数据库.xlsx
@@ -1862,7 +1862,7 @@
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{88d354f9-28fa-4e51-d518-bf5f44d0a03f}" name="tarena" id="-958689172" dateTime="2020-11-26T12:06:36"/>
-  <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958711444" dateTime="2020-11-26T12:22:14"/>
+  <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958700975" dateTime="2020-11-30T17:37:24"/>
 </users>
 </file>
 

--- a/mysite1/项目文档/数据库.xlsx
+++ b/mysite1/项目文档/数据库.xlsx
@@ -545,10 +545,10 @@
     <t xml:space="preserve">ORDER_STATUS </t>
   </si>
   <si>
-    <t>TINNY ENUM(0，1，2，3，4)</t>
-  </si>
-  <si>
-    <t>订单状态（0，待支付，1已支付，2已到货，3已评论，4已取消）</t>
+    <t>TINNY ENUM(0，1，2，3，4,5,6)</t>
+  </si>
+  <si>
+    <t>订单状态（0，待支付，1已支付，2已到货，3已评论，4已取消 5 待发货,6,待评论）</t>
   </si>
   <si>
     <t>PRICE</t>
@@ -676,8 +676,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -717,17 +717,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,6 +745,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -754,14 +758,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,18 +774,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,9 +813,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,28 +859,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,13 +869,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -911,7 +911,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +935,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,157 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,6 +1130,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1147,11 +1156,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,161 +1219,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,7 +1456,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" diskRevisions="1" revisionId="25" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" diskRevisions="1" revisionId="28" version="12">
   <header guid="{f81cc59f-1335-07fd-d418-bf5f091f3b58}" dateTime="2020-11-26T10:54:13" maxSheetId="2" userName="tarena" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1502,11 +1502,77 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{88550f9f-037e-9351-0681-cd5fdff5dfd7}" dateTime="2020-12-07T09:11:42" maxSheetId="2" userName="tarena" r:id="rId10" minRId="26">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4cffb9a6-8d6a-d27e-6481-cd5f59f3a5bb}" dateTime="2020-12-07T09:12:25" maxSheetId="2" userName="tarena" r:id="rId11" minRId="27">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" dateTime="2020-12-07T09:17:36" maxSheetId="2" userName="tarena" r:id="rId12" minRId="28">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="26" sId="1">
+    <oc r="F36" t="inlineStr">
+      <is>
+        <t>订单状态（0，待支付，1已支付，2已到货，3已评论，4已取消）</t>
+      </is>
+    </oc>
+    <nc r="F36" t="inlineStr">
+      <is>
+        <t>订单状态（0，待支付，1已支付，2已到货，3已评论，4已取消 5 待发货,6,待收货）</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="27" sId="1">
+    <oc r="E36" t="inlineStr">
+      <is>
+        <t>TINNY ENUM(0，1，2，3，4)</t>
+      </is>
+    </oc>
+    <nc r="E36" t="inlineStr">
+      <is>
+        <t>TINNY ENUM(0，1，2，3，4,5,6)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="28" sId="1">
+    <oc r="F36" t="inlineStr">
+      <is>
+        <t>订单状态（0，待支付，1已支付，2已到货，3已评论，4已取消 5 待发货,6,待收货）</t>
+      </is>
+    </oc>
+    <nc r="F36" t="inlineStr">
+      <is>
+        <t>订单状态（0，待支付，1已支付，2已到货，3已评论，4已取消 5 待发货,6,待评论）</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1860,9 +1926,14 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="7">
   <userInfo guid="{88d354f9-28fa-4e51-d518-bf5f44d0a03f}" name="tarena" id="-958689172" dateTime="2020-11-26T12:06:36"/>
   <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958700975" dateTime="2020-11-30T17:37:24"/>
+  <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958675847" dateTime="2020-12-07T09:07:49"/>
+  <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958724967" dateTime="2020-12-07T09:09:01"/>
+  <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958670695" dateTime="2020-12-07T09:09:54"/>
+  <userInfo guid="{88550f9f-037e-9351-0681-cd5fdff5dfd7}" name="tarena" id="-958696279" dateTime="2020-12-07T09:10:29"/>
+  <userInfo guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" name="tarena" id="-958709479" dateTime="2020-12-07T09:17:16"/>
 </users>
 </file>
 
@@ -2126,8 +2197,8 @@
   <sheetPr/>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/mysite1/项目文档/数据库.xlsx
+++ b/mysite1/项目文档/数据库.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="206">
   <si>
     <t>数据表：</t>
   </si>
@@ -668,6 +668,65 @@
   </si>
   <si>
     <t>商品单价</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User_address: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户地址表</t>
+    </r>
+  </si>
+  <si>
+    <t>收货人</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VARCHAR(128)</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>区</t>
+  </si>
+  <si>
+    <t>detail_address</t>
+  </si>
+  <si>
+    <t>详细地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 电话</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮箱 </t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>别名(公司, 家里, 父母家)</t>
   </si>
 </sst>
 </file>
@@ -723,8 +782,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,57 +820,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -797,9 +832,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,23 +855,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,6 +886,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -858,8 +901,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,6 +911,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,7 +964,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,115 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,55 +1138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,17 +1199,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1171,21 +1228,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1197,6 +1239,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,146 +1269,152 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1456,7 +1515,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" diskRevisions="1" revisionId="28" version="12">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ee2dccba-875e-49b7-fef5-d65fd51bfca8}" diskRevisions="1" revisionId="76" version="21">
   <header guid="{f81cc59f-1335-07fd-d418-bf5f091f3b58}" dateTime="2020-11-26T10:54:13" maxSheetId="2" userName="tarena" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1517,6 +1576,51 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{e55f22a8-0af8-9f9a-bdf4-d65ff41ae7ed}" dateTime="2020-12-14T13:15:19" maxSheetId="2" userName="tarena" r:id="rId13" minRId="29" maxRId="48">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{603ceda1-02fb-b61e-e7f4-d65f78542d83}" dateTime="2020-12-14T13:15:42" maxSheetId="2" userName="tarena" r:id="rId14" minRId="49">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6ffb9510-1c8e-8cc7-fef4-d65f67af4131}" dateTime="2020-12-14T13:16:57" maxSheetId="2" userName="tarena" r:id="rId15" minRId="50" maxRId="51">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8aef832f-6ef2-b91e-49f5-d65f7c07f2d7}" dateTime="2020-12-14T13:17:48" maxSheetId="2" userName="tarena" r:id="rId16" minRId="52" maxRId="59">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5a71eeef-7877-cf5b-7cf5-d65faf38230c}" dateTime="2020-12-14T13:17:59" maxSheetId="2" userName="tarena" r:id="rId17" minRId="60">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9440295a-c5df-17db-87f5-d65f9d9866e0}" dateTime="2020-12-14T13:18:19" maxSheetId="2" userName="tarena" r:id="rId18" minRId="61" maxRId="65">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{22bcf821-a91f-9a64-9bf5-d65f9553ba6d}" dateTime="2020-12-14T13:18:37" maxSheetId="2" userName="tarena" r:id="rId19" minRId="66" maxRId="68">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4294ad75-43c1-9107-adf5-d65fa9d000f7}" dateTime="2020-12-14T13:19:58" maxSheetId="2" userName="tarena" r:id="rId20" minRId="69" maxRId="74">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ee2dccba-875e-49b7-fef5-d65fd51bfca8}" dateTime="2020-12-14T13:20:49" maxSheetId="2" userName="tarena" r:id="rId21" minRId="75" maxRId="76">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1575,6 +1679,836 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="29" sId="1" odxf="1" dxf="1">
+    <nc r="A50" t="inlineStr">
+      <is>
+        <t>数据表：</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="B50" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="C50" start="0" length="2147483647">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="30" sId="1" odxf="1" dxf="1">
+    <nc r="A51" t="inlineStr">
+      <is>
+        <t>字段</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="31" sId="1" odxf="1" dxf="1">
+    <nc r="B51" t="inlineStr">
+      <is>
+        <t>类型</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="32" sId="1" odxf="1" dxf="1">
+    <nc r="C51" t="inlineStr">
+      <is>
+        <t>说明</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="33" sId="1" odxf="1" dxf="1">
+    <nc r="A52" t="inlineStr">
+      <is>
+        <t xml:space="preserve">ORDER_ID </t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="Noto Sans CJK SC"/>
+        <color auto="1"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="34" sId="1" odxf="1" dxf="1">
+    <nc r="B52" t="inlineStr">
+      <is>
+        <t>INT</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="35" sId="1">
+    <nc r="C52" t="inlineStr">
+      <is>
+        <t>订单ID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="1" odxf="1" dxf="1">
+    <nc r="A53" t="inlineStr">
+      <is>
+        <t xml:space="preserve">ORDER_ITEM_ID </t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="Noto Sans CJK SC"/>
+        <color auto="1"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="37" sId="1" odxf="1" dxf="1">
+    <nc r="B53" t="inlineStr">
+      <is>
+        <t>INT PRIMARY KEY AUTO_INCREMENT,</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="38" sId="1">
+    <nc r="C53" t="inlineStr">
+      <is>
+        <t>订单明细ID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="1" odxf="1" dxf="1">
+    <nc r="A54" t="inlineStr">
+      <is>
+        <t xml:space="preserve">PRODUCT_ID </t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="Noto Sans CJK SC"/>
+        <color auto="1"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="40" sId="1">
+    <nc r="B54" t="inlineStr">
+      <is>
+        <t>INT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="1">
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>商品ID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="1" odxf="1" dxf="1">
+    <nc r="A55" t="inlineStr">
+      <is>
+        <t xml:space="preserve">amount </t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="Noto Sans CJK SC"/>
+        <color auto="1"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="43" sId="1">
+    <nc r="B55" t="inlineStr">
+      <is>
+        <t>INT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="1">
+    <nc r="C55" t="inlineStr">
+      <is>
+        <t>商品数量</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="1" odxf="1" dxf="1">
+    <nc r="A56" t="inlineStr">
+      <is>
+        <t xml:space="preserve">PRICE </t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="Noto Sans CJK SC"/>
+        <color auto="1"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="46" sId="1" odxf="1" dxf="1">
+    <nc r="B56" t="inlineStr">
+      <is>
+        <t xml:space="preserve">DECIMAL(10，2) </t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="47" sId="1">
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t>商品单价</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="1">
+    <nc r="B50" t="inlineStr">
+      <is>
+        <t>User_address: 订单明细表</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B50" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="49" sId="1">
+    <oc r="B50" t="inlineStr">
+      <is>
+        <t>User_address: 订单明细表</t>
+      </is>
+    </oc>
+    <nc r="B50" t="inlineStr">
+      <is>
+        <t>User_address: 用户地址表</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B50" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF333333"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="50" sId="1">
+    <oc r="A52" t="inlineStr">
+      <is>
+        <t xml:space="preserve">ORDER_ID </t>
+      </is>
+    </oc>
+    <nc r="A52" t="inlineStr">
+      <is>
+        <t>receiver</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="1">
+    <oc r="B52" t="inlineStr">
+      <is>
+        <t>INT</t>
+      </is>
+    </oc>
+    <nc r="B52" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)  NOT NULL,</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="52" sId="1">
+    <oc r="A53" t="inlineStr">
+      <is>
+        <t xml:space="preserve">ORDER_ITEM_ID </t>
+      </is>
+    </oc>
+    <nc r="A53" t="inlineStr">
+      <is>
+        <t>province</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="1">
+    <oc r="A54" t="inlineStr">
+      <is>
+        <t xml:space="preserve">PRODUCT_ID </t>
+      </is>
+    </oc>
+    <nc r="A54" t="inlineStr">
+      <is>
+        <t>city</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="1">
+    <oc r="A55" t="inlineStr">
+      <is>
+        <t xml:space="preserve">amount </t>
+      </is>
+    </oc>
+    <nc r="A55" t="inlineStr">
+      <is>
+        <t>district</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="1">
+    <oc r="A56" t="inlineStr">
+      <is>
+        <t xml:space="preserve">PRICE </t>
+      </is>
+    </oc>
+    <nc r="A56" t="inlineStr">
+      <is>
+        <t>detail_address</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="1">
+    <oc r="B53" t="inlineStr">
+      <is>
+        <t>INT PRIMARY KEY AUTO_INCREMENT,</t>
+      </is>
+    </oc>
+    <nc r="B53" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="1">
+    <oc r="B54" t="inlineStr">
+      <is>
+        <t>INT</t>
+      </is>
+    </oc>
+    <nc r="B54" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="1">
+    <oc r="B55" t="inlineStr">
+      <is>
+        <t>INT</t>
+      </is>
+    </oc>
+    <nc r="B55" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="59" sId="1">
+    <oc r="B56" t="inlineStr">
+      <is>
+        <t xml:space="preserve">DECIMAL(10，2) </t>
+      </is>
+    </oc>
+    <nc r="B56" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="60" sId="1">
+    <nc r="A57" t="inlineStr">
+      <is>
+        <t>TELEPHONE</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="61" sId="1">
+    <nc r="A58" t="inlineStr">
+      <is>
+        <t>email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="1">
+    <nc r="A59" t="inlineStr">
+      <is>
+        <t>remark</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="63" sId="1" odxf="1" dxf="1">
+    <nc r="B57" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="64" sId="1" odxf="1" dxf="1">
+    <nc r="B58" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="65" sId="1" odxf="1" dxf="1">
+    <nc r="B59" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="66" sId="1" odxf="1" dxf="1">
+    <oc r="B57" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </oc>
+    <nc r="B57" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(64)  NOT NULL,</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom"/>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="67" sId="1" odxf="1" dxf="1">
+    <oc r="B58" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </oc>
+    <nc r="B58" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(64)  NOT NULL,</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom"/>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="68" sId="1" odxf="1" dxf="1">
+    <oc r="B59" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(128)</t>
+      </is>
+    </oc>
+    <nc r="B59" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> VARCHAR(64)  NOT NULL,</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom"/>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -1658,6 +2592,97 @@
     <nc r="B32" t="inlineStr">
       <is>
         <t>INT,varchar(30)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="69" sId="1">
+    <oc r="C52" t="inlineStr">
+      <is>
+        <t>订单ID</t>
+      </is>
+    </oc>
+    <nc r="C52" t="inlineStr">
+      <is>
+        <t>收货人</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="1">
+    <oc r="C53" t="inlineStr">
+      <is>
+        <t>订单明细ID</t>
+      </is>
+    </oc>
+    <nc r="C53" t="inlineStr">
+      <is>
+        <t>省</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="71" sId="1">
+    <oc r="C54" t="inlineStr">
+      <is>
+        <t>商品ID</t>
+      </is>
+    </oc>
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>市</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="72" sId="1">
+    <oc r="C55" t="inlineStr">
+      <is>
+        <t>商品数量</t>
+      </is>
+    </oc>
+    <nc r="C55" t="inlineStr">
+      <is>
+        <t>区</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="1">
+    <oc r="C56" t="inlineStr">
+      <is>
+        <t>商品单价</t>
+      </is>
+    </oc>
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t>详细地址</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="1">
+    <nc r="C57" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> 电话</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="75" sId="1">
+    <nc r="C58" t="inlineStr">
+      <is>
+        <t xml:space="preserve">邮箱 </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="76" sId="1">
+    <nc r="C59" t="inlineStr">
+      <is>
+        <t>别名(公司, 家里, 父母家)</t>
       </is>
     </nc>
   </rcc>
@@ -1926,7 +2951,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="7">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="9">
   <userInfo guid="{88d354f9-28fa-4e51-d518-bf5f44d0a03f}" name="tarena" id="-958689172" dateTime="2020-11-26T12:06:36"/>
   <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958700975" dateTime="2020-11-30T17:37:24"/>
   <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958675847" dateTime="2020-12-07T09:07:49"/>
@@ -1934,6 +2959,8 @@
   <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958670695" dateTime="2020-12-07T09:09:54"/>
   <userInfo guid="{88550f9f-037e-9351-0681-cd5fdff5dfd7}" name="tarena" id="-958696279" dateTime="2020-12-07T09:10:29"/>
   <userInfo guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" name="tarena" id="-958709479" dateTime="2020-12-07T09:17:16"/>
+  <userInfo guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" name="tarena" id="-958688051" dateTime="2020-12-14T13:12:37"/>
+  <userInfo guid="{ee2dccba-875e-49b7-fef5-d65fd51bfca8}" name="tarena" id="-958688019" dateTime="2020-12-14T13:14:37"/>
 </users>
 </file>
 
@@ -2195,10 +3222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3735,6 +4762,114 @@
         <v>189</v>
       </c>
     </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/mysite1/项目文档/数据库.xlsx
+++ b/mysite1/项目文档/数据库.xlsx
@@ -2951,7 +2951,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="9">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="8">
   <userInfo guid="{88d354f9-28fa-4e51-d518-bf5f44d0a03f}" name="tarena" id="-958689172" dateTime="2020-11-26T12:06:36"/>
   <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958700975" dateTime="2020-11-30T17:37:24"/>
   <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958675847" dateTime="2020-12-07T09:07:49"/>
@@ -2960,7 +2960,6 @@
   <userInfo guid="{88550f9f-037e-9351-0681-cd5fdff5dfd7}" name="tarena" id="-958696279" dateTime="2020-12-07T09:10:29"/>
   <userInfo guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" name="tarena" id="-958709479" dateTime="2020-12-07T09:17:16"/>
   <userInfo guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" name="tarena" id="-958688051" dateTime="2020-12-14T13:12:37"/>
-  <userInfo guid="{ee2dccba-875e-49b7-fef5-d65fd51bfca8}" name="tarena" id="-958688019" dateTime="2020-12-14T13:14:37"/>
 </users>
 </file>
 

--- a/mysite1/项目文档/数据库.xlsx
+++ b/mysite1/项目文档/数据库.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="190">
   <si>
     <t>数据表：</t>
   </si>
@@ -668,65 +668,6 @@
   </si>
   <si>
     <t>商品单价</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User_address: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="文泉驿微米黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户地址表</t>
-    </r>
-  </si>
-  <si>
-    <t>收货人</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VARCHAR(128)</t>
-  </si>
-  <si>
-    <t>省</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>市</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>区</t>
-  </si>
-  <si>
-    <t>detail_address</t>
-  </si>
-  <si>
-    <t>详细地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 电话</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邮箱 </t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>别名(公司, 家里, 父母家)</t>
   </si>
 </sst>
 </file>
@@ -782,32 +723,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,9 +737,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -832,8 +797,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,24 +821,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,14 +851,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -901,9 +858,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,21 +867,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,13 +905,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,169 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,15 +1140,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1228,6 +1171,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1239,17 +1197,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,152 +1216,146 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1515,7 +1456,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ee2dccba-875e-49b7-fef5-d65fd51bfca8}" diskRevisions="1" revisionId="76" version="21">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" diskRevisions="1" revisionId="28" version="12">
   <header guid="{f81cc59f-1335-07fd-d418-bf5f091f3b58}" dateTime="2020-11-26T10:54:13" maxSheetId="2" userName="tarena" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1576,51 +1517,6 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{e55f22a8-0af8-9f9a-bdf4-d65ff41ae7ed}" dateTime="2020-12-14T13:15:19" maxSheetId="2" userName="tarena" r:id="rId13" minRId="29" maxRId="48">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{603ceda1-02fb-b61e-e7f4-d65f78542d83}" dateTime="2020-12-14T13:15:42" maxSheetId="2" userName="tarena" r:id="rId14" minRId="49">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6ffb9510-1c8e-8cc7-fef4-d65f67af4131}" dateTime="2020-12-14T13:16:57" maxSheetId="2" userName="tarena" r:id="rId15" minRId="50" maxRId="51">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8aef832f-6ef2-b91e-49f5-d65f7c07f2d7}" dateTime="2020-12-14T13:17:48" maxSheetId="2" userName="tarena" r:id="rId16" minRId="52" maxRId="59">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5a71eeef-7877-cf5b-7cf5-d65faf38230c}" dateTime="2020-12-14T13:17:59" maxSheetId="2" userName="tarena" r:id="rId17" minRId="60">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9440295a-c5df-17db-87f5-d65f9d9866e0}" dateTime="2020-12-14T13:18:19" maxSheetId="2" userName="tarena" r:id="rId18" minRId="61" maxRId="65">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{22bcf821-a91f-9a64-9bf5-d65f9553ba6d}" dateTime="2020-12-14T13:18:37" maxSheetId="2" userName="tarena" r:id="rId19" minRId="66" maxRId="68">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4294ad75-43c1-9107-adf5-d65fa9d000f7}" dateTime="2020-12-14T13:19:58" maxSheetId="2" userName="tarena" r:id="rId20" minRId="69" maxRId="74">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{ee2dccba-875e-49b7-fef5-d65fd51bfca8}" dateTime="2020-12-14T13:20:49" maxSheetId="2" userName="tarena" r:id="rId21" minRId="75" maxRId="76">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
 </headers>
 </file>
 
@@ -1679,836 +1575,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="29" sId="1" odxf="1" dxf="1">
-    <nc r="A50" t="inlineStr">
-      <is>
-        <t>数据表：</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="B50" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <color rgb="FF333333"/>
-        <sz val="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="C50" start="0" length="2147483647">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="30" sId="1" odxf="1" dxf="1">
-    <nc r="A51" t="inlineStr">
-      <is>
-        <t>字段</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="31" sId="1" odxf="1" dxf="1">
-    <nc r="B51" t="inlineStr">
-      <is>
-        <t>类型</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="32" sId="1" odxf="1" dxf="1">
-    <nc r="C51" t="inlineStr">
-      <is>
-        <t>说明</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="33" sId="1" odxf="1" dxf="1">
-    <nc r="A52" t="inlineStr">
-      <is>
-        <t xml:space="preserve">ORDER_ID </t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <name val="Noto Sans CJK SC"/>
-        <color auto="1"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <name val="Arial"/>
-        <color rgb="FF333333"/>
-        <sz val="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="34" sId="1" odxf="1" dxf="1">
-    <nc r="B52" t="inlineStr">
-      <is>
-        <t>INT</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="35" sId="1">
-    <nc r="C52" t="inlineStr">
-      <is>
-        <t>订单ID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="1" odxf="1" dxf="1">
-    <nc r="A53" t="inlineStr">
-      <is>
-        <t xml:space="preserve">ORDER_ITEM_ID </t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <name val="Noto Sans CJK SC"/>
-        <color auto="1"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <name val="Arial"/>
-        <color rgb="FF333333"/>
-        <sz val="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="37" sId="1" odxf="1" dxf="1">
-    <nc r="B53" t="inlineStr">
-      <is>
-        <t>INT PRIMARY KEY AUTO_INCREMENT,</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="38" sId="1">
-    <nc r="C53" t="inlineStr">
-      <is>
-        <t>订单明细ID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="39" sId="1" odxf="1" dxf="1">
-    <nc r="A54" t="inlineStr">
-      <is>
-        <t xml:space="preserve">PRODUCT_ID </t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <name val="Noto Sans CJK SC"/>
-        <color auto="1"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <name val="Arial"/>
-        <color rgb="FF333333"/>
-        <sz val="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="40" sId="1">
-    <nc r="B54" t="inlineStr">
-      <is>
-        <t>INT</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="1">
-    <nc r="C54" t="inlineStr">
-      <is>
-        <t>商品ID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="42" sId="1" odxf="1" dxf="1">
-    <nc r="A55" t="inlineStr">
-      <is>
-        <t xml:space="preserve">amount </t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <name val="Noto Sans CJK SC"/>
-        <color auto="1"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <name val="Arial"/>
-        <color rgb="FF333333"/>
-        <sz val="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="43" sId="1">
-    <nc r="B55" t="inlineStr">
-      <is>
-        <t>INT</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="44" sId="1">
-    <nc r="C55" t="inlineStr">
-      <is>
-        <t>商品数量</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="1" odxf="1" dxf="1">
-    <nc r="A56" t="inlineStr">
-      <is>
-        <t xml:space="preserve">PRICE </t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <name val="Noto Sans CJK SC"/>
-        <color auto="1"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <name val="Arial"/>
-        <color rgb="FF333333"/>
-        <sz val="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="46" sId="1" odxf="1" dxf="1">
-    <nc r="B56" t="inlineStr">
-      <is>
-        <t xml:space="preserve">DECIMAL(10，2) </t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="47" sId="1">
-    <nc r="C56" t="inlineStr">
-      <is>
-        <t>商品单价</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="1">
-    <nc r="B50" t="inlineStr">
-      <is>
-        <t>User_address: 订单明细表</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B50" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF333333"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="49" sId="1">
-    <oc r="B50" t="inlineStr">
-      <is>
-        <t>User_address: 订单明细表</t>
-      </is>
-    </oc>
-    <nc r="B50" t="inlineStr">
-      <is>
-        <t>User_address: 用户地址表</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B50" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF333333"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="50" sId="1">
-    <oc r="A52" t="inlineStr">
-      <is>
-        <t xml:space="preserve">ORDER_ID </t>
-      </is>
-    </oc>
-    <nc r="A52" t="inlineStr">
-      <is>
-        <t>receiver</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="51" sId="1">
-    <oc r="B52" t="inlineStr">
-      <is>
-        <t>INT</t>
-      </is>
-    </oc>
-    <nc r="B52" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)  NOT NULL,</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="52" sId="1">
-    <oc r="A53" t="inlineStr">
-      <is>
-        <t xml:space="preserve">ORDER_ITEM_ID </t>
-      </is>
-    </oc>
-    <nc r="A53" t="inlineStr">
-      <is>
-        <t>province</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="1">
-    <oc r="A54" t="inlineStr">
-      <is>
-        <t xml:space="preserve">PRODUCT_ID </t>
-      </is>
-    </oc>
-    <nc r="A54" t="inlineStr">
-      <is>
-        <t>city</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="54" sId="1">
-    <oc r="A55" t="inlineStr">
-      <is>
-        <t xml:space="preserve">amount </t>
-      </is>
-    </oc>
-    <nc r="A55" t="inlineStr">
-      <is>
-        <t>district</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="55" sId="1">
-    <oc r="A56" t="inlineStr">
-      <is>
-        <t xml:space="preserve">PRICE </t>
-      </is>
-    </oc>
-    <nc r="A56" t="inlineStr">
-      <is>
-        <t>detail_address</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="56" sId="1">
-    <oc r="B53" t="inlineStr">
-      <is>
-        <t>INT PRIMARY KEY AUTO_INCREMENT,</t>
-      </is>
-    </oc>
-    <nc r="B53" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="57" sId="1">
-    <oc r="B54" t="inlineStr">
-      <is>
-        <t>INT</t>
-      </is>
-    </oc>
-    <nc r="B54" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="58" sId="1">
-    <oc r="B55" t="inlineStr">
-      <is>
-        <t>INT</t>
-      </is>
-    </oc>
-    <nc r="B55" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="59" sId="1">
-    <oc r="B56" t="inlineStr">
-      <is>
-        <t xml:space="preserve">DECIMAL(10，2) </t>
-      </is>
-    </oc>
-    <nc r="B56" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="60" sId="1">
-    <nc r="A57" t="inlineStr">
-      <is>
-        <t>TELEPHONE</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="61" sId="1">
-    <nc r="A58" t="inlineStr">
-      <is>
-        <t>email</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="62" sId="1">
-    <nc r="A59" t="inlineStr">
-      <is>
-        <t>remark</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="63" sId="1" odxf="1" dxf="1">
-    <nc r="B57" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="64" sId="1" odxf="1" dxf="1">
-    <nc r="B58" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="65" sId="1" odxf="1" dxf="1">
-    <nc r="B59" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="66" sId="1" odxf="1" dxf="1">
-    <oc r="B57" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </oc>
-    <nc r="B57" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(64)  NOT NULL,</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom"/>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="67" sId="1" odxf="1" dxf="1">
-    <oc r="B58" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </oc>
-    <nc r="B58" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(64)  NOT NULL,</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom"/>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="68" sId="1" odxf="1" dxf="1">
-    <oc r="B59" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(128)</t>
-      </is>
-    </oc>
-    <nc r="B59" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> VARCHAR(64)  NOT NULL,</t>
-      </is>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom"/>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -2592,97 +1658,6 @@
     <nc r="B32" t="inlineStr">
       <is>
         <t>INT,varchar(30)</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="69" sId="1">
-    <oc r="C52" t="inlineStr">
-      <is>
-        <t>订单ID</t>
-      </is>
-    </oc>
-    <nc r="C52" t="inlineStr">
-      <is>
-        <t>收货人</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="70" sId="1">
-    <oc r="C53" t="inlineStr">
-      <is>
-        <t>订单明细ID</t>
-      </is>
-    </oc>
-    <nc r="C53" t="inlineStr">
-      <is>
-        <t>省</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="71" sId="1">
-    <oc r="C54" t="inlineStr">
-      <is>
-        <t>商品ID</t>
-      </is>
-    </oc>
-    <nc r="C54" t="inlineStr">
-      <is>
-        <t>市</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="72" sId="1">
-    <oc r="C55" t="inlineStr">
-      <is>
-        <t>商品数量</t>
-      </is>
-    </oc>
-    <nc r="C55" t="inlineStr">
-      <is>
-        <t>区</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="73" sId="1">
-    <oc r="C56" t="inlineStr">
-      <is>
-        <t>商品单价</t>
-      </is>
-    </oc>
-    <nc r="C56" t="inlineStr">
-      <is>
-        <t>详细地址</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="74" sId="1">
-    <nc r="C57" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> 电话</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="75" sId="1">
-    <nc r="C58" t="inlineStr">
-      <is>
-        <t xml:space="preserve">邮箱 </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="76" sId="1">
-    <nc r="C59" t="inlineStr">
-      <is>
-        <t>别名(公司, 家里, 父母家)</t>
       </is>
     </nc>
   </rcc>
@@ -2951,7 +1926,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="8">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="7">
   <userInfo guid="{88d354f9-28fa-4e51-d518-bf5f44d0a03f}" name="tarena" id="-958689172" dateTime="2020-11-26T12:06:36"/>
   <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958700975" dateTime="2020-11-30T17:37:24"/>
   <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958675847" dateTime="2020-12-07T09:07:49"/>
@@ -2959,7 +1934,6 @@
   <userInfo guid="{9e54d1d6-4cb6-7d05-21bc-c45f10b8fb8e}" name="tarena" id="-958670695" dateTime="2020-12-07T09:09:54"/>
   <userInfo guid="{88550f9f-037e-9351-0681-cd5fdff5dfd7}" name="tarena" id="-958696279" dateTime="2020-12-07T09:10:29"/>
   <userInfo guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" name="tarena" id="-958709479" dateTime="2020-12-07T09:17:16"/>
-  <userInfo guid="{3a4cc253-fd0f-987c-9c82-cd5f4f3e9ce4}" name="tarena" id="-958688051" dateTime="2020-12-14T13:12:37"/>
 </users>
 </file>
 
@@ -3221,10 +2195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4761,114 +3735,6 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C55" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>202</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>204</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" t="s">
-        <v>205</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
